--- a/public/files/Data_By_Towns_Index/Ocean/Little Egg Harbor Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Ocean/Little Egg Harbor Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>39.5591568</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.37441439999999</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>39.567472</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.370234</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>39.5722194</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.356021</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>39.5792929</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.3629742</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>39.6251958</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.3140308</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>39.5786767</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.37848819999999</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -628,6 +679,12 @@
         <is>
           <t>Patel</t>
         </is>
+      </c>
+      <c r="F8" t="n">
+        <v>39.5406142</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.38897129999999</v>
       </c>
     </row>
   </sheetData>
